--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Caso 0</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>hClinicas_8</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -117,17 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -432,7 +428,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +466,30 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -534,10 +554,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
